--- a/data/excel_files_reduced_clean_series/test_excel_9_reduced_clean_series.xlsx
+++ b/data/excel_files_reduced_clean_series/test_excel_9_reduced_clean_series.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,6 +472,36 @@
           <t>Summary Name</t>
         </is>
       </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Profit</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Cumulative Profit</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Average Expenses</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -510,6 +540,30 @@
         <is>
           <t>Summary Value</t>
         </is>
+      </c>
+      <c r="L2">
+        <f>SUM(FinancialAnalysis!B:B)</f>
+        <v/>
+      </c>
+      <c r="M2">
+        <f>SUM(FinancialAnalysis!C:C)</f>
+        <v/>
+      </c>
+      <c r="N2">
+        <f>SUM(FinancialAnalysis!D:D)</f>
+        <v/>
+      </c>
+      <c r="O2">
+        <f>SUM(FinancialAnalysis!E:E)</f>
+        <v/>
+      </c>
+      <c r="P2">
+        <f>SUM(FinancialAnalysis!F:F)</f>
+        <v/>
+      </c>
+      <c r="Q2">
+        <f>SUM(FinancialAnalysis!G:G)</f>
+        <v/>
       </c>
     </row>
     <row r="3">
